--- a/out.xlsx
+++ b/out.xlsx
@@ -104,19 +104,19 @@
     <t>ФИО4</t>
   </si>
   <si>
-    <t>6580</t>
+    <t>6520</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>6641</t>
-  </si>
-  <si>
-    <t>-2479</t>
-  </si>
-  <si>
-    <t>-41.31</t>
+    <t>6581</t>
+  </si>
+  <si>
+    <t>-2539</t>
+  </si>
+  <si>
+    <t>-42.31</t>
   </si>
   <si>
     <t>ФИО1</t>

--- a/out.xlsx
+++ b/out.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
     <t>ФИО</t>
   </si>
@@ -56,9 +56,6 @@
     <t>-1814</t>
   </si>
   <si>
-    <t>-30.23</t>
-  </si>
-  <si>
     <t>ФИО7</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>-1885</t>
   </si>
   <si>
-    <t>-31.41</t>
-  </si>
-  <si>
     <t>ФИО2</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>-1965</t>
   </si>
   <si>
-    <t>-32.75</t>
-  </si>
-  <si>
     <t>ФИО10</t>
   </si>
   <si>
@@ -98,25 +89,19 @@
     <t>-1990</t>
   </si>
   <si>
-    <t>-33.16</t>
-  </si>
-  <si>
     <t>ФИО4</t>
   </si>
   <si>
-    <t>6520</t>
+    <t>6580</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>6581</t>
-  </si>
-  <si>
-    <t>-2539</t>
-  </si>
-  <si>
-    <t>-42.31</t>
+    <t>6641</t>
+  </si>
+  <si>
+    <t>-2479</t>
   </si>
   <si>
     <t>ФИО1</t>
@@ -134,9 +119,6 @@
     <t>-3175</t>
   </si>
   <si>
-    <t>-52.91</t>
-  </si>
-  <si>
     <t>ФИО8</t>
   </si>
   <si>
@@ -146,9 +128,6 @@
     <t>-3305</t>
   </si>
   <si>
-    <t>-55.08</t>
-  </si>
-  <si>
     <t>ФИО12</t>
   </si>
   <si>
@@ -158,9 +137,6 @@
     <t>-3415</t>
   </si>
   <si>
-    <t>-56.91</t>
-  </si>
-  <si>
     <t>ФИО9</t>
   </si>
   <si>
@@ -170,9 +146,6 @@
     <t>-5020</t>
   </si>
   <si>
-    <t>-83.66</t>
-  </si>
-  <si>
     <t>ФИО5</t>
   </si>
   <si>
@@ -188,9 +161,6 @@
     <t>-5130</t>
   </si>
   <si>
-    <t>-85.5</t>
-  </si>
-  <si>
     <t>ФИО15</t>
   </si>
   <si>
@@ -200,9 +170,6 @@
     <t>-5385</t>
   </si>
   <si>
-    <t>-89.75</t>
-  </si>
-  <si>
     <t>ФИО13</t>
   </si>
   <si>
@@ -212,9 +179,6 @@
     <t>-5860</t>
   </si>
   <si>
-    <t>-97.66</t>
-  </si>
-  <si>
     <t>ФИО3</t>
   </si>
   <si>
@@ -224,9 +188,6 @@
     <t>-7480</t>
   </si>
   <si>
-    <t>-124.66</t>
-  </si>
-  <si>
     <t>ФИО14</t>
   </si>
   <si>
@@ -236,9 +197,6 @@
     <t>-8980</t>
   </si>
   <si>
-    <t>-149.66</t>
-  </si>
-  <si>
     <t>ФИО6</t>
   </si>
   <si>
@@ -246,9 +204,6 @@
   </si>
   <si>
     <t>-9060</t>
-  </si>
-  <si>
-    <t>-151.0</t>
   </si>
   <si>
     <t>Период 03.06.2019 - 28.06.2019</t>
@@ -294,8 +249,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -320,17 +290,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -381,74 +351,74 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
+      <c r="H6" s="1">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
+      <c r="H7" s="2">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
+      <c r="H8" s="3">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -457,50 +427,50 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="H9" s="4">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
+      <c r="H10" s="5">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -509,24 +479,24 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="H11" s="6">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -535,24 +505,24 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="H12" s="7">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -561,24 +531,24 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="H13" s="8">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -587,24 +557,24 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="H14" s="9">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -613,24 +583,24 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="H15" s="10">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -639,24 +609,24 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="H16" s="11">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -665,24 +635,24 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="H17" s="12">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -691,24 +661,24 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="H18" s="13">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -717,24 +687,24 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="H19" s="14">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -743,10 +713,10 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="H20" s="15">
+        <f>G6/60</f>
       </c>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -96,7 +96,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -126,8 +128,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -207,14 +224,14 @@
       <c r="E6" t="n">
         <v>19.0</v>
       </c>
-      <c r="F6" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-1814.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-30.2</v>
+      <c r="F6">
+        <f>E6*8*60</f>
+      </c>
+      <c r="G6">
+        <f>D6-F6</f>
+      </c>
+      <c r="H6" s="1">
+        <f>G6/60</f>
       </c>
     </row>
     <row r="7">
@@ -233,14 +250,14 @@
       <c r="E7" t="n">
         <v>19.0</v>
       </c>
-      <c r="F7" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-1885.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-31.4</v>
+      <c r="F7">
+        <f>E7*8*60</f>
+      </c>
+      <c r="G7">
+        <f>D7-F7</f>
+      </c>
+      <c r="H7" s="2">
+        <f>G7/60</f>
       </c>
     </row>
     <row r="8">
@@ -259,14 +276,14 @@
       <c r="E8" t="n">
         <v>19.0</v>
       </c>
-      <c r="F8" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-1965.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-32.7</v>
+      <c r="F8">
+        <f>E8*8*60</f>
+      </c>
+      <c r="G8">
+        <f>D8-F8</f>
+      </c>
+      <c r="H8" s="3">
+        <f>G8/60</f>
       </c>
     </row>
     <row r="9">
@@ -285,14 +302,14 @@
       <c r="E9" t="n">
         <v>19.0</v>
       </c>
-      <c r="F9" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-1990.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-33.1</v>
+      <c r="F9">
+        <f>E9*8*60</f>
+      </c>
+      <c r="G9">
+        <f>D9-F9</f>
+      </c>
+      <c r="H9" s="4">
+        <f>G9/60</f>
       </c>
     </row>
     <row r="10">
@@ -311,14 +328,14 @@
       <c r="E10" t="n">
         <v>19.0</v>
       </c>
-      <c r="F10" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-2479.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-41.3</v>
+      <c r="F10">
+        <f>E10*8*60</f>
+      </c>
+      <c r="G10">
+        <f>D10-F10</f>
+      </c>
+      <c r="H10" s="5">
+        <f>G10/60</f>
       </c>
     </row>
     <row r="11">
@@ -337,14 +354,14 @@
       <c r="E11" t="n">
         <v>19.0</v>
       </c>
-      <c r="F11" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-3175.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-52.9</v>
+      <c r="F11">
+        <f>E11*8*60</f>
+      </c>
+      <c r="G11">
+        <f>D11-F11</f>
+      </c>
+      <c r="H11" s="6">
+        <f>G11/60</f>
       </c>
     </row>
     <row r="12">
@@ -363,14 +380,14 @@
       <c r="E12" t="n">
         <v>19.0</v>
       </c>
-      <c r="F12" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-3305.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-55.0</v>
+      <c r="F12">
+        <f>E12*8*60</f>
+      </c>
+      <c r="G12">
+        <f>D12-F12</f>
+      </c>
+      <c r="H12" s="7">
+        <f>G12/60</f>
       </c>
     </row>
     <row r="13">
@@ -389,14 +406,14 @@
       <c r="E13" t="n">
         <v>19.0</v>
       </c>
-      <c r="F13" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-3415.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-56.9</v>
+      <c r="F13">
+        <f>E13*8*60</f>
+      </c>
+      <c r="G13">
+        <f>D13-F13</f>
+      </c>
+      <c r="H13" s="8">
+        <f>G13/60</f>
       </c>
     </row>
     <row r="14">
@@ -415,14 +432,14 @@
       <c r="E14" t="n">
         <v>19.0</v>
       </c>
-      <c r="F14" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-5020.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-83.6</v>
+      <c r="F14">
+        <f>E14*8*60</f>
+      </c>
+      <c r="G14">
+        <f>D14-F14</f>
+      </c>
+      <c r="H14" s="9">
+        <f>G14/60</f>
       </c>
     </row>
     <row r="15">
@@ -441,14 +458,14 @@
       <c r="E15" t="n">
         <v>19.0</v>
       </c>
-      <c r="F15" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-5130.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-85.5</v>
+      <c r="F15">
+        <f>E15*8*60</f>
+      </c>
+      <c r="G15">
+        <f>D15-F15</f>
+      </c>
+      <c r="H15" s="10">
+        <f>G15/60</f>
       </c>
     </row>
     <row r="16">
@@ -467,14 +484,14 @@
       <c r="E16" t="n">
         <v>19.0</v>
       </c>
-      <c r="F16" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-5385.0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-89.7</v>
+      <c r="F16">
+        <f>E16*8*60</f>
+      </c>
+      <c r="G16">
+        <f>D16-F16</f>
+      </c>
+      <c r="H16" s="11">
+        <f>G16/60</f>
       </c>
     </row>
     <row r="17">
@@ -493,14 +510,14 @@
       <c r="E17" t="n">
         <v>19.0</v>
       </c>
-      <c r="F17" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-5860.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-97.6</v>
+      <c r="F17">
+        <f>E17*8*60</f>
+      </c>
+      <c r="G17">
+        <f>D17-F17</f>
+      </c>
+      <c r="H17" s="12">
+        <f>G17/60</f>
       </c>
     </row>
     <row r="18">
@@ -519,14 +536,14 @@
       <c r="E18" t="n">
         <v>19.0</v>
       </c>
-      <c r="F18" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-7480.0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-124.6</v>
+      <c r="F18">
+        <f>E18*8*60</f>
+      </c>
+      <c r="G18">
+        <f>D18-F18</f>
+      </c>
+      <c r="H18" s="13">
+        <f>G18/60</f>
       </c>
     </row>
     <row r="19">
@@ -545,14 +562,14 @@
       <c r="E19" t="n">
         <v>19.0</v>
       </c>
-      <c r="F19" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-8980.0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-149.6</v>
+      <c r="F19">
+        <f>E19*8*60</f>
+      </c>
+      <c r="G19">
+        <f>D19-F19</f>
+      </c>
+      <c r="H19" s="14">
+        <f>G19/60</f>
       </c>
     </row>
     <row r="20">
@@ -571,14 +588,14 @@
       <c r="E20" t="n">
         <v>19.0</v>
       </c>
-      <c r="F20" t="n">
-        <v>9120.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-9060.0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-151.0</v>
+      <c r="F20">
+        <f>E20*8*60</f>
+      </c>
+      <c r="G20">
+        <f>D20-F20</f>
+      </c>
+      <c r="H20" s="15">
+        <f>G20/60</f>
       </c>
     </row>
   </sheetData>
